--- a/Profile Development/LTDS profile detail.xlsx
+++ b/Profile Development/LTDS profile detail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ppbr003\Documents\OfgemDNOdataX\Profile Development\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DED7687-DA56-4CDC-AF93-E7BD4125C4A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAAAFDEF-84AC-4B26-B090-F0B233173543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-5760" yWindow="-16320" windowWidth="38640" windowHeight="15990" tabRatio="736" activeTab="2" xr2:uid="{C99356CD-06CD-41EA-925C-270D1C333B01}"/>
   </bookViews>
